--- a/excel_data/hookah_inventory.xlsx
+++ b/excel_data/hookah_inventory.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,99 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>min_quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>gفحم الصفوة 750</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>gفحم الصفوة150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel_data/hookah_inventory.xlsx
+++ b/excel_data/hookah_inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -512,6 +512,32 @@
         <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gفحم الصفوة 1750</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
         </is>

--- a/excel_data/hookah_inventory.xlsx
+++ b/excel_data/hookah_inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,31 @@
           <t>location</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>barcode</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>flavor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>retail_quantity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -480,7 +505,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -490,6 +515,21 @@
           <t>Store 2 / مخزن 2</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>6224011274173</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>750g / 750 جم</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -516,6 +556,21 @@
           <t>Store 2 / مخزن 2</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>6224011274104</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>150g / 150 جم</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -532,15 +587,1880 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>6224011274135</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1750g / 1750 جم</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>فحم الفاخر</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>92</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6223007095259</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Store 2 / مخزن 2</t>
-        </is>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>لاى مزايا بلاس تفاح مكس طبى</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6253345335502</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>gمزايا كابتن فريش 250</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6224010597815</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>gمزايا علكة مستكة 250</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6224010597303</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>علكة مستكة</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>kgفحم كوكومود 1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>769503477022</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>kgروبى كراش مزايا 1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6224010597501</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>روبى كراش</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>kgتفاحتين مزايا 1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>6224010597518</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>تفاحتين</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>kgلوف 66 مزايا 1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>6224010597754</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>لوف 66</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>gروبى كراش مزايا 250</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>6224010597327</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>روبى كراش</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>gتفاحتين مزايا 250</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6224010597235</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>تفاحتين</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>gعلكة بطيخ مزايا 250</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>6224010597594</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>علكة بطيخ</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>gنعناع مثلج مزايا 250</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6224010597570</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>نعناع مثلج</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>gدراق مزايا 250</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>6224010597785</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>دراق</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>gليمون نعناع مزايا 250</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>6224010597198</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ليمون نعناع</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>gنعناع مزايا 250</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>6224010597228</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>نعناع</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>gليمون نعناع مثلج مزايا 250</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>6224010597563</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ليمون نعناع مثلج</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>gفسدق حلبى مزايا 250</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>6224010597723</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>فسدق حلبى</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>gعلكة نعناع مثلج مزايا 250</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>6224010597297</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>علكة نعناع مثلج</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>gباور مكس مزايا 250</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>6224010597334</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>باور مكس</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>gتويست مزايا 250</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>6224010597389</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>تويست</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>gتفاحتين بحرينى مزايا 250</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>6224010597631</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>تفاحتين بحرينى</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>gمانجو دراق مزايا 250</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>6224010597600</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>مانجو دراق</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>gعلكة قرفة مزايا 250</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>6224010597273</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>علكة قرفة</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>gعلكة مزايا 250</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>6224010597211</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>علكة</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>gعلكة مثلج مزايا 250</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>6224010597280</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>علكة مثلج</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>gكيوى مزايا 250</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>6224010597686</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>كيوى</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>gبلوبيرى مع الليمون والنعناع مزايا 250</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>6224010597549</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>بلوبيرى مع الليمون والنعناع</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>gمانجو تويست مزايا 250</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>6224010597525</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>مانجو تويست</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>gبطيخ مزايا 250</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>6224010597624</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>بطيخ</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>gكاندى دروبس مزايا 250</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>6224010597310</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>كاندى دروبس</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>gبلوبيرى اكزوتيكا مزايا 250</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>6224010597266</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>بلوبيرى اكزوتيكا</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>gعنب مزايا 250</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>6224010597242</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>عنب</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>gعنب نعناع مزايا 250</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>6224010597259</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>عنب نعناع</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gمزايا علكة مستكة 250</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>6224010597303</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>علكة مستكة</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>gبلوبيرى مثلج مزايا 250</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>6224010597341</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>بلوبيرى مثلج</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>gمانجو مزايا 250</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>6224010597693</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>مانجو</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>gعنب و توت مزايا 250</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>6224010597556</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>عنب و توت</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>gلوف 66 مزايا 250</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>6224010597617</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>لوف 66</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>gفراولة كريمة مزايا 250</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>6224010597587</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>فراولة كريمة</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>gعلكة بالنعناع مزايا 250</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>6224010597204</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>علكة بالنعناع</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/hookah_inventory.xlsx
+++ b/excel_data/hookah_inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:S108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,47 +456,87 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>retail_quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>barcode</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>carton_count</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>units_per_carton</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>flavor</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>carton_fraction</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>unit_type</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>wholesale_supplier_price</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>wholesale_sale_price</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>retail_sale_price</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>extra_retail_quantity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>min_quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>barcode</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>flavor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>weight</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>retail_quantity</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gفحم الصفوة 750</t>
+          <t>kgفحم كوكومود 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +545,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -516,274 +556,394 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6224011274173</v>
+        <v>769503477022</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Wholesale / جملة</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>750g / 750 جم</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>13</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gفحم الصفوة150</t>
+          <t>kgروبى كراش مزايا 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
+          <t>Retail / قطاعى</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>6224011274104</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6224010597501</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>150g / 150 جم</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>روبى كراش</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gفحم الصفوة 1750</t>
+          <t>kgتفاحتين مزايا 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
+          <t>Retail / قطاعى</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>6224011274135</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6224010597518</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1750g / 1750 جم</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>تفاحتين</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>فحم الفاخر</t>
+          <t>gتويست مزايا 250</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
+          <t>Retail / قطاعى</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>6223007095259</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6224010597389</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1kg / 1 كجم</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>تويست</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>لاى مزايا بلاس تفاح مكس طبى</t>
+          <t>gعلكة مزايا 250</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
+          <t>Retail / قطاعى</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>6253345335502</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6224010597211</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>علكة</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gمزايا كابتن فريش 250</t>
+          <t>gكاندى دروبس مزايا 250</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
+          <t>Retail / قطاعى</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>6224010597815</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6224010597310</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="n">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>كاندى دروبس</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gمزايا علكة مستكة 250</t>
+          <t>gعنب مزايا 250</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
+          <t>Retail / قطاعى</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>6224010597303</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6224010597242</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
+          <t>Retail / قطاعى</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>علكة مستكة</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="n">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>عنب</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kgفحم كوكومود 1</t>
+          <t>gمزايا علكة مستكة 250</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -792,39 +952,57 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>769503477022</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6224010597303</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Wholesale / جملة</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1kg / 1 كجم</t>
-        </is>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>علكة مستكة</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kgروبى كراش مزايا 1</t>
+          <t>gبلوبيرى مثلج مزايا 250</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -835,7 +1013,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>26</v>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -843,7 +1023,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6224010597501</t>
+          <t>6224010597341</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -853,25 +1033,35 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>روبى كراش</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1kg / 1 كجم</t>
-        </is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>بلوبيرى مثلج</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kgتفاحتين مزايا 1</t>
+          <t>gلوف 66 مزايا 250</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +1072,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -890,7 +1082,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6224010597518</t>
+          <t>6224010597617</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -900,30 +1092,40 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>تفاحتين</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1kg / 1 كجم</t>
-        </is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>لوف 66</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kgلوف 66 مزايا 1</t>
+          <t>gجولد علكة قرفة 250</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -937,40 +1139,60 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6224010597754</t>
+          <t>6223006582644</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>لوف 66</t>
+          <t>250g / 250 جم</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1kg / 1 كجم</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>علكة قرفة</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>gروبى كراش مزايا 250</t>
+          <t>gجولد جوافة 250</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -984,40 +1206,56 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6224010597327</t>
+          <t>6223006581937</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>روبى كراش</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="n">
-        <v>20</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>جوافة</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gتفاحتين مزايا 250</t>
+          <t>gجولد كيوى مانجو 250</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1031,40 +1269,56 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6224010597235</t>
+          <t>6223006582675</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>تفاحتين</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>كيوى مانجو</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>gعلكة بطيخ مزايا 250</t>
+          <t>gجولد باشن فروت 250</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1078,40 +1332,56 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6224010597594</t>
+          <t>6223006582477</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>علكة بطيخ</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="n">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>باشن فروت</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>gنعناع مثلج مزايا 250</t>
+          <t>gجولد علكة نعناع 250</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1125,40 +1395,56 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6224010597570</t>
+          <t>6223006582095</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>نعناع مثلج</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="n">
-        <v>18</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>علكة نعناع</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gدراق مزايا 250</t>
+          <t>gجولد علكة مستكة 250</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1172,40 +1458,56 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6224010597785</t>
+          <t>6223006582668</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>دراق</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="n">
-        <v>14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>علكة مستكة</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>gليمون نعناع مزايا 250</t>
+          <t>gجولد بسكويت 250</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1219,40 +1521,56 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6224010597198</t>
+          <t>6223006581470</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>ليمون نعناع</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="n">
-        <v>12</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>بسكويت</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gنعناع مزايا 250</t>
+          <t>معسل عباس 1000 جم</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1266,40 +1584,52 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6224010597228</t>
+          <t>6224000118136</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>نعناع</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>20</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>gليمون نعناع مثلج مزايا 250</t>
+          <t>البرنس ورد 100 جم</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1313,46 +1643,64 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6224010597563</t>
+          <t>6224000118228</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ليمون نعناع مثلج</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>100g / 100 جم</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ورد</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>gفسدق حلبى مزايا 250</t>
+          <t>معسل خطاط 450 جم</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1360,46 +1708,66 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6224010597723</t>
+          <t>6223006582835</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>فسدق حلبى</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>450g / 450 جم</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>سلوم</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gعلكة نعناع مثلج مزايا 250</t>
+          <t>قص الهرم 500 جم</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1407,46 +1775,66 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6224010597297</t>
+          <t>11511155</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>علكة نعناع مثلج</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>500g / 500 جم</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>قص</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>gباور مكس مزايا 250</t>
+          <t>نخلة تفاح معدن 250 جم</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1454,46 +1842,66 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6224010597334</t>
+          <t>6224002273086</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>باور مكس</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
       <c r="K23" t="n">
-        <v>12</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>تفاح</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gتويست مزايا 250</t>
+          <t>زغلول 700 جم</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1501,46 +1909,62 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6224010597389</t>
+          <t>6224002273352</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>تويست</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>7</v>
       </c>
       <c r="K24" t="n">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>زغلول</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>gتفاحتين بحرينى مزايا 250</t>
+          <t>نخلة تفاح 100 جم</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1548,46 +1972,66 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6224010597631</t>
+          <t>6224002273055</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>تفاحتين بحرينى</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>100g / 100 جم</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>7</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>تفاح</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>gمانجو دراق مزايا 250</t>
+          <t>نخلة ليمون 100 جم</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1595,46 +2039,66 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6224010597600</t>
+          <t>6224002273154</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>مانجو دراق</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>100g / 100 جم</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>7</v>
       </c>
       <c r="K26" t="n">
-        <v>10</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ليمون</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>gعلكة قرفة مزايا 250</t>
+          <t>نخلة نعناع 100 جم</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1642,46 +2106,66 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>6224010597273</t>
+          <t>6224002273116</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>علكة قرفة</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>100g / 100 جم</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>نعناع</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>gعلكة مزايا 250</t>
+          <t>فاخر عنب توت 1000 جم</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1689,46 +2173,66 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6224010597211</t>
+          <t>6223007093965</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>علكة</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>عنب و توت</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>gعلكة مثلج مزايا 250</t>
+          <t>الكبير تفاح 1000 جم</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1736,46 +2240,66 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6224010597280</t>
+          <t>6223007094238</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>علكة مثلج</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>تفاح</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>20</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>gكيوى مزايا 250</t>
+          <t>الكبير فسدق 1000 جم</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1783,40 +2307,58 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6224010597686</t>
+          <t>6223007094450</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>كيوى</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>فسدق</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>gبلوبيرى مع الليمون والنعناع مزايا 250</t>
+          <t>فحم الفاخر</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1830,35 +2372,57 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6224010597549</t>
+          <t>6223007095259</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>بلوبيرى مع الليمون والنعناع</t>
+          <t>1kg / 1 كجم</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>250g / 250 جم</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>12</v>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>gمانجو تويست مزايا 250</t>
+          <t>gنعناع مثلج مزايا 250</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1869,7 +2433,9 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>18</v>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1877,7 +2443,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>6224010597525</t>
+          <t>6224010597570</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1887,25 +2453,35 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>مانجو تويست</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="n">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>نعناع مثلج</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>gبطيخ مزايا 250</t>
+          <t>gدراق مزايا 250</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1916,7 +2492,9 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>14</v>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1924,7 +2502,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6224010597624</t>
+          <t>6224010597785</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1934,25 +2512,35 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>بطيخ</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="n">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>دراق</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gكاندى دروبس مزايا 250</t>
+          <t>gليمون نعناع مثلج مزايا 250</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1963,7 +2551,9 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -1971,7 +2561,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6224010597310</t>
+          <t>6224010597563</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1981,25 +2571,35 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>كاندى دروبس</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="n">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ليمون نعناع مثلج</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>gبلوبيرى اكزوتيكا مزايا 250</t>
+          <t>gباور مكس مزايا 250</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2010,7 +2610,9 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>12</v>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -2018,7 +2620,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>6224010597266</t>
+          <t>6224010597334</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2028,25 +2630,35 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>بلوبيرى اكزوتيكا</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="n">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>باور مكس</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gعنب مزايا 250</t>
+          <t>gمانجو دراق مزايا 250</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2057,7 +2669,9 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -2065,7 +2679,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6224010597242</t>
+          <t>6224010597600</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2075,25 +2689,35 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>عنب</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="n">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>مانجو دراق</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>gعنب نعناع مزايا 250</t>
+          <t>gعلكة قرفة مزايا 250</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2728,9 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -2112,7 +2738,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6224010597259</t>
+          <t>6224010597273</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2122,36 +2748,48 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>عنب نعناع</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="n">
-        <v>46</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>علكة قرفة</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gمزايا علكة مستكة 250</t>
+          <t>gعنب و توت مزايا 250</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
+          <t>Retail / قطاعى</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>18</v>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -2159,35 +2797,45 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6224010597303</t>
+          <t>6224010597556</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Wholesale / جملة</t>
+          <t>Retail / قطاعى</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>علكة مستكة</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="n">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>عنب و توت</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>gبلوبيرى مثلج مزايا 250</t>
+          <t>gفراولة كريمة مزايا 250</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2198,7 +2846,9 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>6</v>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -2206,7 +2856,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>6224010597341</t>
+          <t>6224010597587</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2216,25 +2866,35 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>بلوبيرى مثلج</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="n">
-        <v>26</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>فراولة كريمة</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>gمانجو مزايا 250</t>
+          <t>gعلكة بالنعناع مزايا 250</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2245,7 +2905,9 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>8</v>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>Store 2 / مخزن 2</t>
@@ -2253,7 +2915,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6224010597693</t>
+          <t>6224010597204</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2263,30 +2925,40 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>مانجو</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="n">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>علكة بالنعناع</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>gعنب و توت مزايا 250</t>
+          <t>gجولد عنب توت 250</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2300,40 +2972,56 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6224010597556</t>
+          <t>6223006582071</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>عنب و توت</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="n">
-        <v>18</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>عنب توت</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>gلوف 66 مزايا 250</t>
+          <t>gجولد ميجا بيرى 250</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2347,40 +3035,56 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>6224010597617</t>
+          <t>6223006581418</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>لوف 66</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ميجا بيرى</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>gفراولة كريمة مزايا 250</t>
+          <t>سلوم شرقية 500 جم</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2394,40 +3098,56 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6224010597587</t>
+          <t>6221004001389</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>فراولة كريمة</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>250g / 250 جم</t>
-        </is>
+          <t>500g / 500 جم</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>22</v>
       </c>
       <c r="K43" t="n">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>سلوم</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>gعلكة بالنعناع مزايا 250</t>
+          <t>اسطورة سلوم 500 جم</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Retail / قطاعى</t>
+          <t>Wholesale / جملة</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2441,27 +3161,4023 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>6224010597204</t>
+          <t>6223006584365</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>500g / 500 جم</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>سلوم</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>69</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>فحم الفاخر 500 جم</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>6223007095471</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>500g / 500 جم</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>20</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>70</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>قص اسطورة 100 جم</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>6223006581982</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>100g / 100 جم</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>48</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>قص</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>37</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>72</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>دندش هادى فاخر 100 جم</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>6223006581951</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>100g / 100 جم</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>25</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>76</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>نخلة تفاح سطل معدن 1000 جم</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>6224002273376</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>12</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>تفاح</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>85</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>نخلة خوخ 100 جم</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>6224002273093</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>100g / 100 جم</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>27</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>خوخ</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>86</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>نخلة كنتالوب 100 جم</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>6224002273130</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>100g / 100 جم</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>27</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>كنتالوب</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>88</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>فاخر عنب 1000 جم</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>6223007090544</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>عنب</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>91</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>فاخر اوشن 1000 جم</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>6223007095402</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>اوشن</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>94</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>فاخر عنب نعناع 1000 جم</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>6223007090551</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>عنب نعناع</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>gفحم الصفوة 750</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>6224011274173</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>750g / 750 جم</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>10</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>gفحم الصفوة150</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>6224011274104</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>150g / 150 جم</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>gمزايا كابتن فريش 250</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>18</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>6224010597815</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>18</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>13</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>gتفاحتين مزايا 250</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>Retail / قطاعى</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>علكة بالنعناع</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>6224010597235</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>250g / 250 جم</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>تفاحتين</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>24</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>gتفاحتين بحرينى مزايا 250</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>6224010597631</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>10</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>تفاحتين بحرينى</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>29</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>gكيوى مزايا 250</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>12</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>6224010597686</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>12</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>كيوى</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>30</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>gبلوبيرى مع الليمون والنعناع مزايا 250</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>12</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>6224010597549</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>12</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>بلوبيرى مع الليمون والنعناع</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>gمانجو تويست مزايا 250</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>20</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>6224010597525</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>20</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>مانجو تويست</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>gعنب نعناع مزايا 250</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>46</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>6224010597259</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>46</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>عنب نعناع</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>gمانجو مزايا 250</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>14</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>6224010597693</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>14</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>مانجو</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>gجولد كولا 250</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>6223006582682</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>كولا</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>55</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>gجولد كانتالوب 250</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>6223006581425</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>كانتالوب</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>اسطورة سلوم 1000 جم</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>6223006584143</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>10</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>سلوم</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>68</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>فحم الفاخر 250 جم</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>6223007095433</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>40</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>71</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>دندش هادى فاخر 800 جم</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>6223006583405</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
         <v>8</v>
       </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>73</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>معسل خطاط 1000 جم</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>6223006584150</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>6</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>سلوم</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>80</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>زغلول 150 جم</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>6224002273048</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>150g / 150 جم</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>6</v>
+      </c>
+      <c r="K70" t="n">
+        <v>25</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>زغلول</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>92</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>فاخر علكة مستكة 1000 جم</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>6223007090575</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>علكة مستكة</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>93</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>فاخر كيوى مانجو 1000 جم</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>6223007093958</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>كيوى مانجو</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>95</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>فاخر عنب 250 جم</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>6223007092012</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>24</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>عنب</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>97</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>الكبير عنب 1000 جم</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>6223007094252</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>عنب</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>100</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ازاد خوخ 1000 جم</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>6223006654396</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>خوخ</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>10</v>
+      </c>
+      <c r="S75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>gفحم الصفوة 1750</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>4</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>6224011274135</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1750g / 1750 جم</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>4</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>لاى مزايا بلاس تفاح مكس طبى</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>6253345335502</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>gمزايا علكة مستكة 250</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>6224010597303</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>علكة مستكة</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>kgلوف 66 مزايا 1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>6224010597754</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>لوف 66</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>12</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>gروبى كراش مزايا 250</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>20</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>6224010597327</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>20</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>روبى كراش</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>14</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>gعلكة بطيخ مزايا 250</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>6224010597594</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>6</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>علكة بطيخ</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>17</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>gليمون نعناع مزايا 250</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>6224010597198</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>12</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ليمون نعناع</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>18</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>gنعناع مزايا 250</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>20</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>6224010597228</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>20</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>نعناع</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>20</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>gفسدق حلبى مزايا 250</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>18</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>6224010597723</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>18</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>فسدق حلبى</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>21</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>gعلكة نعناع مثلج مزايا 250</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>12</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>6224010597297</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>12</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>علكة نعناع مثلج</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>28</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>gعلكة مثلج مزايا 250</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>6224010597280</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>8</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>علكة مثلج</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>32</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>gبطيخ مزايا 250</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>18</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>6224010597624</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>18</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>بطيخ</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>gبلوبيرى اكزوتيكا مزايا 250</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>6224010597266</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Retail / قطاعى</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>8</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>بلوبيرى اكزوتيكا</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>46</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>gجولد عنب نعناع 250</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>6223006582057</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>عنب نعناع</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>49</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>gجولد تويست 250</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>6223006582514</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>6</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>تويست</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>51</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>gجولد لوف 250</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>6223006581463</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>10</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>لوف / love</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>54</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>gجولد فسدق حلبى مثلج 250</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>6223006581920</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>6</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>فسدق حلبى مثلج</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>62</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>معسل عباس 500 جم</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>6224000118198</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>500g / 500 جم</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>12</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>البرنس عنب 100 جم</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>6224000118129</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>100g / 100 جم</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>25</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>عنب</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>66</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>قص اسطورة 1000 جم</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>6223006584419</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>7</v>
+      </c>
+      <c r="K95" t="n">
+        <v>6</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>قص</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>67</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>قص اسطورة 250 جم</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>6223006581999</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>250g / 250 جم</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>24</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>قص</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>19</v>
+      </c>
+      <c r="S96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>79</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>زغلول 350 جم</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>6224002273031</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>350g / 350 جم</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>7</v>
+      </c>
+      <c r="K97" t="n">
+        <v>12</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>زغلول</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>81</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>نخلة تفاح سطل 900 جم</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>6224002273369</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>تفاح</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>87</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>فاخر تفاح 1000 جم</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>6223007090698</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>6</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>تفاح</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>89</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>فاخر ليمون نعناع 1000 جم</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>6223007090612</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>6</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>ليمون نعناع</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>الكبير علكة 1000 جم</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>6223007094290</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>علكة</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>103</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>خليل مأمون لايت 1000 جم</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>100077923140</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>10</v>
+      </c>
+      <c r="K102" t="n">
+        <v>6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>سلوم</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>106</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>الكبير معسل اسود 200 جم</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>6223007093682</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>30</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>سلوم</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>107</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>الكبير معسل اسود 50 جم</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>6223007096751</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>50g / 50 جم</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>7</v>
+      </c>
+      <c r="K104" t="n">
+        <v>10</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>سلوم</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>101</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ازاد تفاح 1000 جم</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>6223006654280</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>تفاح</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="n">
+        <v>12</v>
+      </c>
+      <c r="S105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>الكبير قص 200 جم</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>6223007095273</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>30</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>قص</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>102</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ازاد ليمون نعناع 1000 جم</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>6223006654440</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>ليمون نعناع</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>104</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>خليل مأمون قص 1000 جم</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Store 2 / مخزن 2</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>100077923141</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1kg / 1 كجم</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>قص</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Wholesale / جملة</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
